--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3475.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3475.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.131024772509085</v>
+        <v>0.7903876304626465</v>
       </c>
       <c r="B1">
-        <v>1.927678851700862</v>
+        <v>1.234026908874512</v>
       </c>
       <c r="C1">
-        <v>6.284674409919143</v>
+        <v>4.472187995910645</v>
       </c>
       <c r="D1">
-        <v>4.520957386952459</v>
+        <v>4.072829246520996</v>
       </c>
       <c r="E1">
-        <v>1.531805380691697</v>
+        <v>1.09970486164093</v>
       </c>
     </row>
   </sheetData>
